--- a/static/download/2012/RP1_ERT_CEF_2012.xlsx
+++ b/static/download/2012/RP1_ERT_CEF_2012.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="ERT_CEF" sheetId="1" r:id="rId3"/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Data source</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -34,7 +37,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>En route unit costs/DUR (EU wide level in EUR2009)</t>
@@ -126,8 +129,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -178,7 +181,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -220,6 +224,34 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -311,175 +343,187 @@
   </cellStyleXfs>
   <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,12 +533,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -503,23 +550,23 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="11.14"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="6" width="11.29"/>
-    <col customWidth="1" min="7" max="7" width="13.43"/>
-    <col customWidth="1" min="8" max="8" width="12.43"/>
-    <col customWidth="1" min="9" max="9" width="12.71"/>
-    <col customWidth="1" min="10" max="10" width="10.29"/>
-    <col customWidth="1" min="11" max="11" width="9.43"/>
-    <col customWidth="1" min="12" max="12" width="10.86"/>
-    <col customWidth="1" min="13" max="13" width="10.57"/>
-    <col customWidth="1" min="14" max="14" width="11.43"/>
-    <col customWidth="1" min="15" max="15" width="12.0"/>
+    <col customWidth="1" min="1" max="1" width="13.13"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.75"/>
+    <col customWidth="1" min="4" max="4" width="14.13"/>
+    <col customWidth="1" min="5" max="5" width="12.0"/>
+    <col customWidth="1" min="6" max="6" width="9.88"/>
+    <col customWidth="1" min="7" max="7" width="11.75"/>
+    <col customWidth="1" min="8" max="8" width="10.88"/>
+    <col customWidth="1" min="9" max="9" width="11.13"/>
+    <col customWidth="1" min="10" max="10" width="9.0"/>
+    <col customWidth="1" min="11" max="11" width="8.25"/>
+    <col customWidth="1" min="12" max="12" width="9.5"/>
+    <col customWidth="1" min="13" max="13" width="9.25"/>
+    <col customWidth="1" min="14" max="14" width="10.0"/>
+    <col customWidth="1" min="15" max="15" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -538,9 +585,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Determined_Unit_Rate_for_en_route_Air_Navigation_Services","Determined Unit Rate for en route Air Navigation Services")</f>
-        <v>Determined Unit Rate for en route Air Navigation Services</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="5"/>
@@ -554,22 +600,22 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7">
         <v>41670.0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>42004.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
@@ -602,19 +648,19 @@
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -623,68 +669,68 @@
     </row>
     <row r="5" ht="38.25" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="19">
         <v>2009.0</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="21" t="str">
+      <c r="D6" s="21">
         <f t="shared" ref="D6:D8" si="1">(G6/L6)</f>
-        <v>63.71</v>
+        <v>63.71129868</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="24" t="str">
+      <c r="G6" s="24">
         <f>6247946110.66995/1000000</f>
-        <v>6,248</v>
+        <v>6247.946111</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="25">
@@ -694,9 +740,9 @@
         <v>100.0</v>
       </c>
       <c r="K6" s="27"/>
-      <c r="L6" s="21" t="str">
+      <c r="L6" s="21">
         <f>98066532/1000000</f>
-        <v>98.07</v>
+        <v>98.066532</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="25">
@@ -708,57 +754,57 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="29">
         <v>2010.0</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="31" t="str">
+      <c r="D7" s="31">
         <f t="shared" si="1"/>
-        <v>60.37</v>
+        <v>60.3739243</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="34" t="str">
+      <c r="G7" s="34">
         <f>6067472645.21063/1000000</f>
-        <v>6,067</v>
+        <v>6067.472645</v>
       </c>
       <c r="H7" s="30"/>
-      <c r="I7" s="35" t="str">
+      <c r="I7" s="35">
         <f t="shared" ref="I7:I8" si="2">J7</f>
-        <v>97.11</v>
-      </c>
-      <c r="J7" s="36" t="str">
+        <v>97.11147532</v>
+      </c>
+      <c r="J7" s="36">
         <f>(G7/G6)*100</f>
-        <v>97.11</v>
+        <v>97.11147532</v>
       </c>
       <c r="K7" s="37"/>
-      <c r="L7" s="31" t="str">
+      <c r="L7" s="31">
         <f>100498231.908562/1000000</f>
-        <v>100.50</v>
+        <v>100.4982319</v>
       </c>
       <c r="M7" s="30"/>
-      <c r="N7" s="35" t="str">
+      <c r="N7" s="35">
         <f t="shared" ref="N7:N8" si="3">O7</f>
-        <v>102.48</v>
-      </c>
-      <c r="O7" s="36" t="str">
+        <v>102.479643</v>
+      </c>
+      <c r="O7" s="36">
         <f>(L7/L6)*100</f>
-        <v>102.48</v>
+        <v>102.479643</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="29">
         <v>2011.0</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="31" t="str">
+      <c r="D8" s="31">
         <f t="shared" si="1"/>
-        <v>56.86</v>
+        <v>56.85602673</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
@@ -766,163 +812,163 @@
         <v>5972.3692976341</v>
       </c>
       <c r="H8" s="30"/>
-      <c r="I8" s="35" t="str">
+      <c r="I8" s="35">
         <f t="shared" si="2"/>
-        <v>95.59</v>
-      </c>
-      <c r="J8" s="36" t="str">
+        <v>95.58932154</v>
+      </c>
+      <c r="J8" s="36">
         <f>(G8/G6)*100</f>
-        <v>95.59</v>
+        <v>95.58932154</v>
       </c>
       <c r="K8" s="37"/>
-      <c r="L8" s="31" t="str">
+      <c r="L8" s="31">
         <f>105043733.1132/1000000</f>
-        <v>105.04</v>
+        <v>105.0437331</v>
       </c>
       <c r="M8" s="30"/>
-      <c r="N8" s="35" t="str">
+      <c r="N8" s="35">
         <f t="shared" si="3"/>
-        <v>107.11</v>
-      </c>
-      <c r="O8" s="36" t="str">
+        <v>107.1147628</v>
+      </c>
+      <c r="O8" s="36">
         <f>(L8/L6)*100</f>
-        <v>107.11</v>
+        <v>107.1147628</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="29">
         <v>2012.0</v>
       </c>
-      <c r="C9" s="31" t="str">
+      <c r="C9" s="31">
         <f t="shared" ref="C9:C11" si="4">(F9/K9)</f>
-        <v>57.75</v>
-      </c>
-      <c r="D9" s="31" t="str">
+        <v>57.75320653</v>
+      </c>
+      <c r="D9" s="31">
         <f>G9/L9</f>
-        <v>58.43</v>
-      </c>
-      <c r="E9" s="32" t="str">
+        <v>58.43412106</v>
+      </c>
+      <c r="E9" s="32">
         <f>(D9/C9)-1</f>
-        <v>1.2%</v>
-      </c>
-      <c r="F9" s="33" t="str">
+        <v>0.01179007326</v>
+      </c>
+      <c r="F9" s="33">
         <f>6258122340.62318/1000000</f>
-        <v>6,258</v>
+        <v>6258.122341</v>
       </c>
       <c r="G9" s="38">
         <v>6048.01815638921</v>
       </c>
-      <c r="H9" s="39" t="str">
+      <c r="H9" s="39">
         <f>(G9/F9)-1</f>
-        <v>-3.4%</v>
-      </c>
-      <c r="I9" s="40" t="str">
+        <v>-0.03357303881</v>
+      </c>
+      <c r="I9" s="40">
         <f>(F9/G6)*100</f>
-        <v>100.16</v>
-      </c>
-      <c r="J9" s="36" t="str">
+        <v>100.1628732</v>
+      </c>
+      <c r="J9" s="36">
         <f>(G9/G6)*100</f>
-        <v>96.80</v>
-      </c>
-      <c r="K9" s="41" t="str">
+        <v>96.80010117</v>
+      </c>
+      <c r="K9" s="41">
         <f>108359738.22338/1000000</f>
-        <v>108.36</v>
-      </c>
-      <c r="L9" s="31" t="str">
+        <v>108.3597382</v>
+      </c>
+      <c r="L9" s="31">
         <f>103501482.4654/1000000</f>
-        <v>103.50</v>
-      </c>
-      <c r="M9" s="39" t="str">
+        <v>103.5014825</v>
+      </c>
+      <c r="M9" s="39">
         <f>(L9/K9)-1</f>
-        <v>-4.5%</v>
-      </c>
-      <c r="N9" s="40" t="str">
+        <v>-0.04483450992</v>
+      </c>
+      <c r="N9" s="40">
         <f>(K9/L6)*100</f>
-        <v>110.50</v>
-      </c>
-      <c r="O9" s="36" t="str">
+        <v>110.4961458</v>
+      </c>
+      <c r="O9" s="36">
         <f>(L9/L6)*100</f>
-        <v>105.54</v>
+        <v>105.5421053</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="29">
         <v>2013.0</v>
       </c>
-      <c r="C10" s="31" t="str">
+      <c r="C10" s="31">
         <f t="shared" si="4"/>
-        <v>56.70</v>
+        <v>56.69575416</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="43"/>
-      <c r="F10" s="33" t="str">
+      <c r="F10" s="33">
         <f>6319367128.53566/1000000</f>
-        <v>6,319</v>
+        <v>6319.367129</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="40" t="str">
+      <c r="I10" s="40">
         <f>(F10/G6)*100</f>
-        <v>101.14</v>
+        <v>101.1431119</v>
       </c>
       <c r="J10" s="36"/>
-      <c r="K10" s="41" t="str">
+      <c r="K10" s="41">
         <f>111461029.521594/1000000</f>
-        <v>111.46</v>
+        <v>111.4610295</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="40" t="str">
+        <v>28</v>
+      </c>
+      <c r="N10" s="40">
         <f>(K10/L6)*100</f>
-        <v>113.66</v>
+        <v>113.6585818</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="50">
         <v>2014.0</v>
       </c>
-      <c r="C11" s="51" t="str">
+      <c r="C11" s="51">
         <f t="shared" si="4"/>
-        <v>54.85</v>
+        <v>54.85395692</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="53"/>
-      <c r="F11" s="54" t="str">
+      <c r="F11" s="54">
         <f>6306268418.70708/1000000</f>
-        <v>6,306</v>
+        <v>6306.268419</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="57" t="str">
+      <c r="I11" s="57">
         <f>(F11/G6)*100</f>
-        <v>100.93</v>
+        <v>100.9334637</v>
       </c>
       <c r="J11" s="58"/>
-      <c r="K11" s="59" t="str">
+      <c r="K11" s="59">
         <f>114964694.854951/1000000</f>
-        <v>114.96</v>
+        <v>114.9646949</v>
       </c>
       <c r="L11" s="55"/>
       <c r="M11" s="56"/>
-      <c r="N11" s="57" t="str">
+      <c r="N11" s="57">
         <f>(K11/L6)*100</f>
-        <v>117.23</v>
+        <v>117.231325</v>
       </c>
       <c r="O11" s="58"/>
     </row>
